--- a/top_plans_market_value_assets.xlsx
+++ b/top_plans_market_value_assets.xlsx
@@ -17,10 +17,10 @@
     <t xml:space="preserve">plan</t>
   </si>
   <si>
-    <t xml:space="preserve">geo_return_20yr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mva</t>
+    <t xml:space="preserve">geo_return_23yr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mva_2023</t>
   </si>
   <si>
     <t xml:space="preserve">California Public Employees Retirement Fund</t>
@@ -32,22 +32,22 @@
     <t xml:space="preserve">New York State &amp; Local Employees Retirement System</t>
   </si>
   <si>
+    <t xml:space="preserve">Texas Teacher Retirement System</t>
+  </si>
+  <si>
     <t xml:space="preserve">Florida Retirement System</t>
   </si>
   <si>
-    <t xml:space="preserve">Texas Teacher Retirement System</t>
-  </si>
-  <si>
     <t xml:space="preserve">New York State Teachers' Retirement System</t>
   </si>
   <si>
     <t xml:space="preserve">Ohio Public Employees Retirement System</t>
   </si>
   <si>
+    <t xml:space="preserve">Virginia Retirement System</t>
+  </si>
+  <si>
     <t xml:space="preserve">Georgia Teachers Retirement System</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virginia Retirement System</t>
   </si>
   <si>
     <t xml:space="preserve">University of California Retirement System</t>
@@ -401,7 +401,7 @@
         <v>0.0562476527963229</v>
       </c>
       <c r="C2" t="n">
-        <v>477322752000</v>
+        <v>464578144000</v>
       </c>
     </row>
     <row r="3">
@@ -423,7 +423,7 @@
         <v>0.0640965195128747</v>
       </c>
       <c r="C4" t="n">
-        <v>232049473000</v>
+        <v>211183223000</v>
       </c>
     </row>
     <row r="5">
@@ -431,10 +431,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>0.06260764315498</v>
+        <v>0.0591390299953134</v>
       </c>
       <c r="C5" t="n">
-        <v>202082182546</v>
+        <v>187170535558</v>
       </c>
     </row>
     <row r="6">
@@ -442,10 +442,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0591390299953134</v>
+        <v>0.06260764315498</v>
       </c>
       <c r="C6" t="n">
-        <v>201807002496</v>
+        <v>186357365968</v>
       </c>
     </row>
     <row r="7">
@@ -456,7 +456,7 @@
         <v>0.0650034649100193</v>
       </c>
       <c r="C7" t="n">
-        <v>148148457000</v>
+        <v>137221537000</v>
       </c>
     </row>
     <row r="8">
@@ -467,7 +467,7 @@
         <v>0.0629870392041749</v>
       </c>
       <c r="C8" t="n">
-        <v>110211000000</v>
+        <v>99596000000</v>
       </c>
     </row>
     <row r="9">
@@ -475,10 +475,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0596882210251712</v>
+        <v>0.0621338429481317</v>
       </c>
       <c r="C9" t="n">
-        <v>102146688000</v>
+        <v>98127270000</v>
       </c>
     </row>
     <row r="10">
@@ -486,10 +486,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0621338429481317</v>
+        <v>0.0596882210251712</v>
       </c>
       <c r="C10" t="n">
-        <v>98127270000</v>
+        <v>94991195000</v>
       </c>
     </row>
     <row r="11">
@@ -500,7 +500,7 @@
         <v>0.0557274824686089</v>
       </c>
       <c r="C11" t="n">
-        <v>91826002000</v>
+        <v>88262774000</v>
       </c>
     </row>
   </sheetData>
